--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29AA3EF4-65E7-45E8-B115-904D4D8430CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CC29A-A97E-4310-A063-4FFE52A29945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="3300" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="8400" yWindow="7575" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,130 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 객체 생성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectSpawnRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectSpawnReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 객체 생성 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>↔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> S</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C ← S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["UserName"] = "ABCD"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Position"] = "1.001, 1.002, 1.003"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quaternion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Quaternion"] = "1,00, 1.001, 1.002, 1.003"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerQuaternion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CannonQuaternion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱크 헤드 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱크 캐논 회전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +224,29 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -132,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -142,13 +289,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -465,86 +627,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:N5"/>
+  <dimension ref="B2:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="29.875" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="29.875" customWidth="1"/>
+    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="8" max="8" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="2:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="2:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D3:E3"/>
+  <mergeCells count="7">
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="C7:C10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E80CC29A-A97E-4310-A063-4FFE52A29945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E428CFD-2974-46E4-A1F1-05A7475C0462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="7575" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="1695" yWindow="7680" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$C$17</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,31 +78,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 객체 생성 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위치</t>
+  </si>
+  <si>
+    <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameObjectSpawnRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameObjectSpawnReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,6 +194,54 @@
   </si>
   <si>
     <t>탱크 캐논 회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankSpawnReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankSpawnRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankSpawnRequest(Response)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 객체 생성 요청 응답(ACK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치는 서버에서 무작위로 정함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankSpawnRequest의 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부에서의 접근으로 인하여 생긴 다른 Tank에 대한 Report</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player용 게임 객체 생성 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Type"] = "0"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,11 +345,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,28 +665,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P14"/>
+  <dimension ref="B2:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="6" customWidth="1"/>
-    <col min="4" max="4" width="29.875" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
-    <col min="7" max="7" width="38.5" customWidth="1"/>
-    <col min="8" max="8" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="6" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="38.5" customWidth="1"/>
+    <col min="9" max="9" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -667,20 +705,21 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
@@ -688,174 +727,223 @@
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>27</v>
+      <c r="B8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" t="s">
-        <v>29</v>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
         <v>21</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" t="s">
+      <c r="C12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" t="s">
         <v>26</v>
       </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" t="s">
+      <c r="G17" t="s">
         <v>28</v>
       </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="8"/>
-      <c r="E14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="C7:C10"/>
+  <mergeCells count="8">
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C13:C1048576" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+      <formula1>$D$4:$D$6</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E428CFD-2974-46E4-A1F1-05A7475C0462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE805F-3DA2-48D9-94D7-BE276E550082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="7680" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="540" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$3:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$3:$C$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,7 +95,6 @@
   </si>
   <si>
     <t>게임 객체 생성 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Direction</t>
@@ -242,6 +242,46 @@
   </si>
   <si>
     <t>["Type"] = "0"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankPositionReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C ↔ S</t>
+  </si>
+  <si>
+    <t>Server/Client 서로가 인지하고 있는
+현재 플레이어 객체의 위치, 회전 정보 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 프레임 구조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data with JSON</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,6 +339,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,7 +363,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -333,23 +379,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,19 +716,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8053D23-4EB6-4ED3-B75B-64D93E2A5E34}">
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C7:F7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
+  <dimension ref="B2:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="6" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="6" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="39.875" customWidth="1"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
     <col min="7" max="7" width="20.625" customWidth="1"/>
     <col min="8" max="8" width="38.5" customWidth="1"/>
@@ -684,7 +795,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="3"/>
@@ -711,10 +822,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="2" t="s">
         <v>19</v>
       </c>
@@ -726,10 +837,10 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
@@ -747,10 +858,10 @@
       <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="E5" t="s">
@@ -775,14 +886,14 @@
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -796,20 +907,20 @@
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
@@ -826,9 +937,9 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+      <c r="E11" s="10"/>
       <c r="F11" t="s">
         <v>22</v>
       </c>
@@ -840,9 +951,9 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="E12" s="10"/>
       <c r="F12" t="s">
         <v>23</v>
       </c>
@@ -854,19 +965,19 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
+      <c r="B13" s="7"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
@@ -878,14 +989,14 @@
       <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="10"/>
       <c r="F15" t="s">
         <v>23</v>
       </c>
@@ -895,12 +1006,12 @@
       <c r="H15" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="7"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="10"/>
       <c r="F16" t="s">
         <v>25</v>
       </c>
@@ -910,12 +1021,12 @@
       <c r="H16" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="7"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="10"/>
       <c r="F17" t="s">
         <v>26</v>
       </c>
@@ -925,22 +1036,87 @@
       <c r="H17" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="7"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E14:E17"/>
+  <mergeCells count="11">
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C13:C1048576" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C23:C1048576 C13:C19" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE805F-3DA2-48D9-94D7-BE276E550082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8BB02E-438E-4397-91D7-5987A0F2F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="8190" yWindow="6435" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$3:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$3:$C$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,17 +84,11 @@
   </si>
   <si>
     <t>위치</t>
-  </si>
-  <si>
-    <t>위치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회전</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 객체 생성 안내</t>
   </si>
   <si>
     <t>Direction</t>
@@ -201,30 +195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TankSpawnReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TankSpawnRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TankSpawnRequest(Response)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 객체 생성 요청 응답(ACK)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위치는 서버에서 무작위로 정함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,30 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>외부에서의 접근으로 인하여 생긴 다른 Tank에 대한 Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player용 게임 객체 생성 요청</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["Type"] = "0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TankPositionReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C ↔ S</t>
-  </si>
-  <si>
-    <t>Server/Client 서로가 인지하고 있는
-현재 플레이어 객체의 위치, 회전 정보 전송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,6 +228,104 @@
   </si>
   <si>
     <t>Data with JSON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectSpawnReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["ID"] = "1111"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버로부터 부여받은 객체 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectDestroyReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C ← S</t>
+  </si>
+  <si>
+    <t>C ← S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 제외한 다른 GameObject가 시야에 들어와 Instantiate가 필요함을 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 제외한 다른 GameObject가 시야에서 벗어나 Destroy가 필요함을 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectPositionReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 제외한 다른 GameObject가 시야에 있을 때 위치를 주기적으로 보고함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectSpawnRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C → S</t>
+  </si>
+  <si>
+    <t>플레이어가 자신의 GameObject를 요청함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectSpawnRequest (Reply)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectSubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["ObjectType"] = "Tank"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["ObjectSubType"] = "Yellow"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 부타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에서 무작위로 정함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에서 무작위로 정함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 요청에 대한 응답</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,22 +430,25 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -719,48 +766,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8053D23-4EB6-4ED3-B75B-64D93E2A5E34}">
   <dimension ref="B2:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="B2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -776,15 +823,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P22"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
     <col min="3" max="3" width="11.875" style="5" customWidth="1"/>
     <col min="4" max="4" width="11.875" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
@@ -816,7 +863,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
@@ -827,10 +874,10 @@
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
@@ -838,10 +885,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -859,10 +906,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -874,249 +921,339 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="D7" s="3"/>
+      <c r="E7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>17</v>
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="10" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="10"/>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
-      <c r="C12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="10"/>
       <c r="F12" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C15" s="7"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C16" s="7"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="13"/>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="13"/>
+      <c r="F19" t="s">
         <v>21</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="8"/>
-      <c r="E15" s="10"/>
-      <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-      <c r="E16" s="10"/>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="8"/>
-      <c r="E17" s="10"/>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" t="s">
-        <v>22</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="E20" s="13"/>
       <c r="F20" t="s">
         <v>23</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="E21" s="13"/>
       <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="12"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E30" s="13"/>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E31" s="13"/>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="13"/>
+      <c r="F32" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
         <v>25</v>
       </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="13"/>
+      <c r="F33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" t="s">
+      <c r="G33" t="s">
         <v>26</v>
       </c>
-      <c r="G22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
+      <c r="H33" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="C10:C12"/>
+  <mergeCells count="9">
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E10:E14"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="C17:C21"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="E14:E17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C23:C1048576 C13:C19" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576 C4:C10 C15:C17" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8BB02E-438E-4397-91D7-5987A0F2F90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12925E2-76B8-4CD8-A20E-3971628BE7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="6435" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="8190" yWindow="5640" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -825,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12925E2-76B8-4CD8-A20E-3971628BE7BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BE576-9073-4A67-ABC6-137663E3BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="5640" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$3:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$C$3:$C$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,34 +204,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EOF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0x02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 프레임 구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JSON Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data with JSON</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameObjectSpawnReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -326,6 +303,282 @@
   </si>
   <si>
     <t>플레이어의 요청에 대한 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket RFC6455사양을 따름 (https://www.rfc-editor.org/rfc/rfc6455#section-1.2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSV3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에서 이어지는 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 (0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001 (1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010 (2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이너리 프레임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 (8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001 (9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010 (A)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퐁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기재하지 않은 다른거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Custom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2Byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MASK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별히 정한게 없으면 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0bX0000000 (0)
+~
+0bX1111111(127)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Masking
+Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번째 Byte의 MASK가 1이라면 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3Byte
+~
+10Byte
+(8Byte)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">11Byte
+~
+14Byte
+(4Byte)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0이면 즉시 데이터로 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세 개 중에 하나만 가능하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이후 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식에서 제시한 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 끝(프레임의 끝을 담당하며, 자동으로 시작도 담당하게 됨). Countinous Frame의 경우엔 0이어야 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket RFC 6455 Spec Case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 1 : 한번에 데이터가 몰려 프레임이 분리됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b00000001 0x03 0x48 0x65 0x6c (contains "Hel")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b10000000 0x02 0x6c 0x6f (contains "lo")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스킹 설정. 클라이언트는 서버에게 마스킹된 데이터를 보내야만 함. 마스킹되지 않은 데이터를 서버가 받으면 1002번 (프로토콜 에러) 오류를 발송할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 2 : 데이터가 깨짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 여기서부터 이전 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Case 3 : 이전 데이터가 남음 -&gt; 처리하면서 0으로 비우는 로직 사용하면 없앨 수 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-&gt; 여기서부터 다시 시작 / 어떻게 분간할 것인지?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x89 0x05 0x48 0x65 0x6c 0x6c 0x6f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b10001001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContinuousData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에서부터 7번째 bit -&gt; 0번째 bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0b00000000 (0)
+~
+0b11111111(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex) 0x82 0x7E 0x01 0x00 Data…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmasked Frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7E = 0b01111110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01 = 0b00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>따라서,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 (125까지) / 7 + 16 / 7 + 64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126인 경우, 다음 2Byte가 길이가 된다. 127인 경우, 다음 8byte가 길이이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN은 1이고, OPCode는 Continuous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN은 0이고, OPCode는 …</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,7 +641,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -432,23 +685,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,68 +1047,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8053D23-4EB6-4ED3-B75B-64D93E2A5E34}">
-  <dimension ref="B2:G7"/>
+  <dimension ref="B2:I48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
+    <col min="8" max="9" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="18"/>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="18"/>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="18"/>
+      <c r="C10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="E32" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="10"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="F44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="F45" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="C16:C22"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C11:C14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCD7E5-B0CA-440C-BDBF-5E721E16F3D5}">
+  <dimension ref="B3:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" t="s">
-        <v>33</v>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>81</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="M9" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" t="s">
+        <v>97</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J19" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="C7:F7"/>
+  <mergeCells count="7">
+    <mergeCell ref="M7:W7"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="B7:L7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -869,10 +1718,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
@@ -931,23 +1780,23 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -959,64 +1808,64 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="17"/>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="17"/>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10"/>
-      <c r="F11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10"/>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
         <v>54</v>
       </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I12" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="17"/>
       <c r="F13" t="s">
         <v>20</v>
       </c>
@@ -1027,14 +1876,14 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="9"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="10"/>
+      <c r="E14" s="17"/>
       <c r="F14" t="s">
         <v>21</v>
       </c>
@@ -1054,30 +1903,30 @@
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="D17" s="7"/>
-      <c r="E17" s="13" t="s">
-        <v>45</v>
+      <c r="E17" s="22" t="s">
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="9"/>
-      <c r="E18" s="13"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="E18" s="22"/>
       <c r="F18" t="s">
         <v>20</v>
       </c>
@@ -1092,9 +1941,9 @@
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="13"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="E19" s="22"/>
       <c r="F19" t="s">
         <v>21</v>
       </c>
@@ -1106,9 +1955,9 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="9"/>
-      <c r="E20" s="13"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="E20" s="22"/>
       <c r="F20" t="s">
         <v>23</v>
       </c>
@@ -1119,13 +1968,13 @@
         <v>22</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="9"/>
-      <c r="E21" s="13"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="E21" s="22"/>
       <c r="F21" t="s">
         <v>24</v>
       </c>
@@ -1141,58 +1990,58 @@
     </row>
     <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="12"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="12"/>
+      <c r="E26" s="9"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="12"/>
+      <c r="E27" s="9"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>48</v>
+        <v>38</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="13"/>
+      <c r="E30" s="22"/>
       <c r="F30" t="s">
         <v>20</v>
       </c>
@@ -1204,7 +2053,7 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="13"/>
+      <c r="E31" s="22"/>
       <c r="F31" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +2065,7 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="13"/>
+      <c r="E32" s="22"/>
       <c r="F32" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +2077,7 @@
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="13"/>
+      <c r="E33" s="22"/>
       <c r="F33" t="s">
         <v>24</v>
       </c>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76BE576-9073-4A67-ABC6-137663E3BD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A628D5-6040-48D2-8770-82E2EFC6BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15345" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="45" yWindow="1410" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$C$3:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$C$3:$C$6</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,22 +195,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위치는 서버에서 무작위로 정함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TankSpawnRequest의 응답</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 프레임 구조</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameObjectSpawnReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버로부터 부여받은 객체 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameObjectDestroyReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,22 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어를 제외한 다른 GameObject가 시야에 들어와 Instantiate가 필요함을 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 제외한 다른 GameObject가 시야에서 벗어나 Destroy가 필요함을 알림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameObjectPositionReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어를 제외한 다른 GameObject가 시야에 있을 때 위치를 주기적으로 보고함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GameObjectSpawnRequest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -307,10 +274,6 @@
   </si>
   <si>
     <t>WebSocket RFC6455사양을 따름 (https://www.rfc-editor.org/rfc/rfc6455#section-1.2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,14 +427,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>WebSocket RFC 6455 Spec Case</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case 1 : 한번에 데이터가 몰려 프레임이 분리됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0b00000001 0x03 0x48 0x65 0x6c (contains "Hel")</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -480,39 +435,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RCV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마스킹 설정. 클라이언트는 서버에게 마스킹된 데이터를 보내야만 함. 마스킹되지 않은 데이터를 서버가 받으면 1002번 (프로토콜 에러) 오류를 발송할 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case 2 : 데이터가 깨짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; 여기서부터 이전 데이터</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Case 3 : 이전 데이터가 남음 -&gt; 처리하면서 0으로 비우는 로직 사용하면 없앨 수 있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-&gt; 여기서부터 다시 시작 / 어떻게 분간할 것인지?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -579,6 +502,34 @@
   </si>
   <si>
     <t>FIN은 0이고, OPCode는 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 제외한 다른 GameObject가 채널에서 벗어나 Destroy가 필요함을 알림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TankMoveReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 플레이어의 이동을 주기적으로 보고함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 제외한 다른 Tank가 채널에 있을 때 이동을 주기적으로 보고함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Velocity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 방향 및 속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Velocity"] = "1.001, 1.002, 1.003"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -713,7 +664,13 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,11 +678,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1049,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8053D23-4EB6-4ED3-B75B-64D93E2A5E34}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1065,18 +1022,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="15"/>
@@ -1085,350 +1042,345 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>61</v>
+      <c r="B7" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>80</v>
+      <c r="E8" s="22" t="s">
+        <v>71</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="8" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="12" t="s">
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="G11" t="s">
+      <c r="D16" s="21" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="12" t="s">
+      <c r="E16" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="G12" t="s">
+      <c r="E31" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="E32" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="12" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="12" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="E32" s="12" t="s">
-        <v>87</v>
-      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="B15:B22"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
@@ -1436,6 +1388,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,238 +1401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BCD7E5-B0CA-440C-BDBF-5E721E16F3D5}">
-  <dimension ref="B3:X19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
+  <dimension ref="B2:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-      <c r="X7" s="3"/>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" t="s">
-        <v>97</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>81</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M9" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="J19" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="M7:W7"/>
-    <mergeCell ref="N8:Q8"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="B7:L7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1718,10 +1448,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1780,23 +1510,23 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1808,64 +1538,64 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="22"/>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="22"/>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="17"/>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="17"/>
-      <c r="F12" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="22"/>
       <c r="F13" t="s">
         <v>20</v>
       </c>
@@ -1876,14 +1606,14 @@
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="22"/>
       <c r="F14" t="s">
         <v>21</v>
       </c>
@@ -1899,34 +1629,34 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="7"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+    <row r="17" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="E18" s="22"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
       <c r="F18" t="s">
         <v>20</v>
       </c>
@@ -1936,14 +1666,11 @@
       <c r="H18" t="s">
         <v>19</v>
       </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="17"/>
-      <c r="C19" s="18"/>
-      <c r="E19" s="22"/>
+    </row>
+    <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
       <c r="F19" t="s">
         <v>21</v>
       </c>
@@ -1954,10 +1681,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="E20" s="22"/>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
       <c r="F20" t="s">
         <v>23</v>
       </c>
@@ -1967,14 +1694,11 @@
       <c r="H20" t="s">
         <v>22</v>
       </c>
-      <c r="I20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="17"/>
-      <c r="C21" s="18"/>
-      <c r="E21" s="22"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
       <c r="F21" t="s">
         <v>24</v>
       </c>
@@ -1984,125 +1708,173 @@
       <c r="H21" t="s">
         <v>22</v>
       </c>
-      <c r="I21" t="s">
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E28" s="9"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E27" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E30" s="22"/>
+      <c r="E30" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E31" s="22"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="24"/>
       <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E32" s="24"/>
+      <c r="F32" t="s">
         <v>21</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" t="s">
         <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="22"/>
-      <c r="F32" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="22"/>
+      <c r="E33" s="24"/>
       <c r="F33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="24"/>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="E23:E24"/>
+  <mergeCells count="5">
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E30:E34"/>
     <mergeCell ref="E10:E14"/>
     <mergeCell ref="C10:C14"/>
     <mergeCell ref="B10:B14"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22:C1048576 C4:C10 C15:C17" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C42:C1048576 C15:C34" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A628D5-6040-48D2-8770-82E2EFC6BE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7295D4-BE8B-463B-B38F-C53609A10A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1410" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="13185" yWindow="1845" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,38 @@
   </si>
   <si>
     <t>["Velocity"] = "1.001, 1.002, 1.003"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerChatReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 플레이어가 Chat을 발송하였을 때 보고함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보낸 Player 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채팅 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Sender"] = "SYSTEM"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Message"] = "Hello World!"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -611,7 +643,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,7 +702,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -678,17 +713,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,14 +1057,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1047,7 +1082,7 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1064,14 +1099,14 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="20" t="s">
         <v>71</v>
       </c>
       <c r="G8" s="3"/>
@@ -1079,28 +1114,28 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="22"/>
+      <c r="E9" s="20"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="20"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1117,8 +1152,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="14" t="s">
         <v>58</v>
       </c>
@@ -1133,8 +1168,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="14" t="s">
         <v>59</v>
       </c>
@@ -1149,8 +1184,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="14" t="s">
         <v>61</v>
       </c>
@@ -1159,7 +1194,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1173,11 +1208,11 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="22" t="s">
         <v>73</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1185,32 +1220,32 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="23"/>
       <c r="E17" s="12" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="23"/>
       <c r="E18" s="12" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="23"/>
       <c r="E19" s="12" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="23"/>
       <c r="E20" s="12" t="s">
         <v>94</v>
@@ -1220,8 +1255,8 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="23"/>
       <c r="E21" s="12" t="s">
         <v>95</v>
@@ -1231,61 +1266,61 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="24" t="s">
         <v>74</v>
       </c>
       <c r="E31" s="12" t="s">
@@ -1293,35 +1328,35 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="E32" s="12" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
@@ -1381,6 +1416,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B15:B22"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
@@ -1388,11 +1428,6 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1402,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P34"/>
+  <dimension ref="B2:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1538,14 +1573,14 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>47</v>
       </c>
       <c r="F10" t="s">
@@ -1559,10 +1594,10 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
       <c r="F11" t="s">
         <v>39</v>
       </c>
@@ -1574,10 +1609,10 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="22"/>
+      <c r="E12" s="20"/>
       <c r="F12" t="s">
         <v>40</v>
       </c>
@@ -1592,10 +1627,10 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="22"/>
+      <c r="E13" s="20"/>
       <c r="F13" t="s">
         <v>20</v>
       </c>
@@ -1610,10 +1645,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="22"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="22"/>
+      <c r="E14" s="20"/>
       <c r="F14" t="s">
         <v>21</v>
       </c>
@@ -1801,7 +1836,7 @@
       <c r="C30" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="26" t="s">
         <v>106</v>
       </c>
       <c r="F30" t="s">
@@ -1817,7 +1852,7 @@
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="26"/>
       <c r="F31" t="s">
         <v>107</v>
       </c>
@@ -1829,7 +1864,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E32" s="24"/>
+      <c r="E32" s="26"/>
       <c r="F32" t="s">
         <v>21</v>
       </c>
@@ -1840,8 +1875,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="24"/>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E33" s="26"/>
       <c r="F33" t="s">
         <v>23</v>
       </c>
@@ -1852,8 +1887,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E34" s="24"/>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E34" s="26"/>
       <c r="F34" t="s">
         <v>24</v>
       </c>
@@ -1862,6 +1897,37 @@
       </c>
       <c r="H34" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" t="s">
+        <v>115</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1873,8 +1939,8 @@
     <mergeCell ref="B10:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C42:C1048576 C15:C34" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C42:C1048576 C15:C34 C36" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7295D4-BE8B-463B-B38F-C53609A10A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1433AF56-1C2A-4E9D-9842-1D71E331A13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="1845" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="10830" yWindow="1620" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +562,18 @@
   </si>
   <si>
     <t>["Message"] = "Hello World!"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["PlayerName"] = "Player01"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1437,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P37"/>
+  <dimension ref="B2:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1599,13 +1611,13 @@
       <c r="D11" s="3"/>
       <c r="E11" s="20"/>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
@@ -1614,16 +1626,13 @@
       <c r="D12" s="3"/>
       <c r="E12" s="20"/>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
@@ -1632,16 +1641,16 @@
       <c r="D13" s="3"/>
       <c r="E13" s="20"/>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
@@ -1650,81 +1659,85 @@
       <c r="D14" s="3"/>
       <c r="E14" s="20"/>
       <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="20"/>
+      <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C15" s="7"/>
-      <c r="D15" s="3"/>
-    </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="17"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="17"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>30</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="18"/>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
       <c r="E20" s="18"/>
       <c r="F20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -1735,10 +1748,10 @@
       <c r="D21" s="17"/>
       <c r="E21" s="18"/>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -1747,55 +1760,55 @@
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-      <c r="E22" s="9"/>
+      <c r="E22" s="18"/>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>29</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" t="s">
         <v>30</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
       <c r="F25" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1803,10 +1816,10 @@
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>22</v>
@@ -1817,71 +1830,73 @@
       <c r="D27" s="17"/>
       <c r="E27" s="18"/>
       <c r="F27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E28" s="9"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>104</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="26" t="s">
+      <c r="E31" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" t="s">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="26"/>
-      <c r="F31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" t="s">
-        <v>108</v>
-      </c>
-      <c r="H31" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
       <c r="E32" s="26"/>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E33" s="26"/>
       <c r="F33" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
@@ -1890,57 +1905,69 @@
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E34" s="26"/>
       <c r="F34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E35" s="26"/>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>111</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>112</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>114</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F37" t="s">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
         <v>113</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>115</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>117</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E30:E34"/>
-    <mergeCell ref="E10:E14"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C10 C42:C1048576 C15:C34 C36" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 C43:C1048576 C16:C35 C37" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1433AF56-1C2A-4E9D-9842-1D71E331A13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A22F6-EE6D-41C3-9E4D-1C2BA709BF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10830" yWindow="1620" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="1575" yWindow="2970" windowWidth="25845" windowHeight="17715" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2번째 Byte의 MASK가 1이라면 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3Byte
 ~
 10Byte
@@ -403,10 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0이면 즉시 데이터로 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세 개 중에 하나만 가능하다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,6 +566,34 @@
   </si>
   <si>
     <t>["PlayerName"] = "Player01"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7e 0xfe 일 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 길이 바이트가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x7f 0xff 일 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 8개 바이트가 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤에 2개 바이트가 길이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0000 ~ 0xffff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x00000000 ~</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +737,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,11 +745,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8053D23-4EB6-4ED3-B75B-64D93E2A5E34}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1089,7 +1109,7 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1098,13 +1118,13 @@
         <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1118,7 +1138,7 @@
       <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="23" t="s">
         <v>71</v>
       </c>
       <c r="G8" s="3"/>
@@ -1133,7 +1153,7 @@
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="20"/>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
@@ -1143,7 +1163,7 @@
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
@@ -1216,7 +1236,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -1228,80 +1248,92 @@
         <v>73</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="23"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="23"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="23"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="12" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>95</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="23"/>
+      <c r="D22" s="24"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
-        <v>76</v>
+      <c r="B23" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>72</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
+      <c r="E24" s="12" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
       <c r="D25" s="22"/>
+      <c r="E25" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
@@ -1312,16 +1344,28 @@
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
+      <c r="E27" s="12" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
+      <c r="E28" s="12" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
+      <c r="E29" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
@@ -1329,22 +1373,16 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="B31" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="20" t="s">
         <v>74</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
-      <c r="E32" s="12" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
@@ -1372,67 +1410,62 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="B15:B22"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
@@ -1440,6 +1473,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1451,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
   <dimension ref="B2:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1585,14 +1623,14 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="23" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="23" t="s">
         <v>47</v>
       </c>
       <c r="F10" t="s">
@@ -1606,25 +1644,25 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="20"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="21"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="23"/>
       <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
         <v>118</v>
       </c>
-      <c r="G11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="21"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="20"/>
+      <c r="E12" s="23"/>
       <c r="F12" t="s">
         <v>39</v>
       </c>
@@ -1636,10 +1674,10 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="20"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="21"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="20"/>
+      <c r="E13" s="23"/>
       <c r="F13" t="s">
         <v>40</v>
       </c>
@@ -1654,10 +1692,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="20"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="21"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="20"/>
+      <c r="E14" s="23"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
@@ -1672,10 +1710,10 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="20"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="21"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="20"/>
+      <c r="E15" s="23"/>
       <c r="F15" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1741,7 @@
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F18" t="s">
         <v>29</v>
@@ -1778,14 +1816,14 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -1802,13 +1840,13 @@
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
       <c r="F25" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" t="s">
         <v>107</v>
-      </c>
-      <c r="G25" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
@@ -1858,13 +1896,13 @@
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
         <v>29</v>
@@ -1881,13 +1919,13 @@
       <c r="D32" s="17"/>
       <c r="E32" s="26"/>
       <c r="F32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
         <v>107</v>
-      </c>
-      <c r="G32" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
@@ -1928,33 +1966,33 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C37" s="19" t="s">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
         <v>112</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>114</v>
-      </c>
-      <c r="H37" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="F38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" t="s">
         <v>113</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>115</v>
-      </c>
-      <c r="H38" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A22F6-EE6D-41C3-9E4D-1C2BA709BF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18822E-D3AB-411E-A6F8-C9B1983C805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="2970" windowWidth="25845" windowHeight="17715" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="2220" yWindow="1515" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,18 +222,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GameObjectSpawnRequest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>C → S</t>
   </si>
   <si>
     <t>플레이어가 자신의 GameObject를 요청함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameObjectSpawnRequest (Reply)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -594,6 +586,61 @@
   </si>
   <si>
     <t>0x00000000 ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTankSpawnRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerTankSpawnRequest (Reply)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameObjectSpawnReport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 GameObject Spawn 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BulletSpawnRequest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>힘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["Force"] = "1,00, 1.001, 1.002, 1.003"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet 생성 요청. 힘 또한 주어 즉시 사용할 수 있게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["ObjectType"] = "Bullet"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["ObjectSubType"] = "Normal"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bullet의 주인 객체</t>
+  </si>
+  <si>
+    <t>["ID"] = "1111"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -675,7 +722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,14 +789,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8053D23-4EB6-4ED3-B75B-64D93E2A5E34}">
   <dimension ref="B2:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -1089,18 +1148,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="15"/>
@@ -1109,363 +1168,368 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="21" t="s">
-        <v>52</v>
+      <c r="B7" s="25" t="s">
+        <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="21"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>71</v>
+      <c r="E8" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="21"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="24"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="21"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="23"/>
+      <c r="E10" s="24"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="21"/>
-      <c r="C11" s="21" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="F12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E13" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="E15" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21" t="s">
+      <c r="D16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="27"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="24"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="12" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="F44" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="F45" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B15:B22"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
@@ -1473,11 +1537,6 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P38"/>
+  <dimension ref="B2:P58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1533,10 +1592,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1595,23 +1654,23 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
@@ -1623,15 +1682,15 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="23" t="s">
-        <v>47</v>
+      <c r="E10" s="24" t="s">
+        <v>45</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -1644,58 +1703,58 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="23"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="23"/>
+      <c r="E11" s="24"/>
       <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" t="s">
         <v>116</v>
       </c>
-      <c r="G11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="23"/>
-      <c r="C12" s="21"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="23"/>
+      <c r="E12" s="24"/>
       <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" t="s">
         <v>39</v>
       </c>
-      <c r="G12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="23"/>
-      <c r="C13" s="21"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="23"/>
+      <c r="E13" s="24"/>
       <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="23"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="24"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
@@ -1706,14 +1765,14 @@
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="21"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="23"/>
+      <c r="E15" s="24"/>
       <c r="F15" t="s">
         <v>21</v>
       </c>
@@ -1725,105 +1784,112 @@
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C16" s="7"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="3"/>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="17"/>
+      <c r="B17" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18" t="s">
-        <v>101</v>
-      </c>
+      <c r="E17" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="22"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="22"/>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="22"/>
       <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="22"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="22"/>
+      <c r="F20" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="22"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="22"/>
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F24" t="s">
         <v>29</v>
@@ -1835,21 +1901,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18"/>
       <c r="F25" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="18"/>
@@ -1892,120 +1958,398 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="9"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="26" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>30</v>
+      </c>
+      <c r="H30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31" t="s">
         <v>104</v>
       </c>
-      <c r="F31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" t="s">
-        <v>30</v>
-      </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-      <c r="E32" s="26"/>
+      <c r="E32" s="18"/>
       <c r="F32" t="s">
-        <v>105</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E33" s="26"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
       <c r="F33" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E34" s="26"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
       <c r="F34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G34" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E35" s="26"/>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
-        <v>26</v>
-      </c>
-      <c r="H35" t="s">
-        <v>22</v>
-      </c>
+      <c r="E35" s="9"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="30"/>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E39" s="30"/>
+      <c r="F39" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E40" s="30"/>
+      <c r="F40" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E41" s="30"/>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="23"/>
+    </row>
+    <row r="43" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>128</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="28"/>
+      <c r="F44" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="21"/>
+      <c r="E45" s="28"/>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="28"/>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="28"/>
+      <c r="F47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="28"/>
+      <c r="F48" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" t="s">
+        <v>131</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="23"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" t="s">
+        <v>136</v>
+      </c>
+      <c r="H50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="28"/>
+      <c r="F51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="28"/>
+      <c r="F52" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="28"/>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="28"/>
+      <c r="F54" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="28"/>
+      <c r="F55" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" t="s">
+        <v>131</v>
+      </c>
+      <c r="H55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" t="s">
         <v>108</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="G57" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
         <v>109</v>
       </c>
-      <c r="F37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G37" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F38" t="s">
+      <c r="G58" t="s">
         <v>111</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H58" t="s">
         <v>113</v>
       </c>
-      <c r="H38" t="s">
-        <v>115</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="E50:E55"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E31:E35"/>
+    <mergeCell ref="E37:E41"/>
     <mergeCell ref="E10:E15"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 C43:C1048576 C16:C35 C37" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 C63:C1048576 C53:C57 C17:C20 C23:C43 C46:C50" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/CommunicationSpec.xlsx
+++ b/CommunicationSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\UnityProject\PROJECT\UnityOnlineProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18822E-D3AB-411E-A6F8-C9B1983C805C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EE0F79-AEF5-4E35-ADE1-15ACD870F76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="1515" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
+    <workbookView xWindow="75" yWindow="1920" windowWidth="25845" windowHeight="17715" activeTab="1" xr2:uid="{C4C8D13A-16D1-42DF-AF52-E4B8468C6B80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="153">
   <si>
     <t>프로토콜 일람</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -497,26 +497,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 플레이어의 이동을 주기적으로 보고함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어를 제외한 다른 Tank가 채널에 있을 때 이동을 주기적으로 보고함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Velocity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 방향 및 속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>["Velocity"] = "1.001, 1.002, 1.003"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PlayerChatReport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,6 +625,82 @@
   </si>
   <si>
     <t>["ID"] = "1111"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveDirection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 방향(Normalized)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationVector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RotationDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 값(사용자 입력 앞/뒤)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerRotationVector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 회전 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TowerRotationDelta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타워 회전 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CannonRotationVector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐논 회전 방향</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐논 회전 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자신의 이동을 주기적으로 보고함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초당 프레임 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보정 연산용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,7 +856,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -804,17 +867,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1148,14 +1208,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
@@ -1173,7 +1233,7 @@
       <c r="C6" s="10"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1190,14 +1250,14 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="16">
         <v>0</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="28" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="3"/>
@@ -1205,28 +1265,28 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="25"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="16">
         <v>0</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="28"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="25"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="16">
         <v>0</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
+      <c r="B11" s="26"/>
+      <c r="C11" s="26" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -1243,8 +1303,8 @@
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="14" t="s">
         <v>56</v>
       </c>
@@ -1259,8 +1319,8 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="14" t="s">
         <v>57</v>
       </c>
@@ -1275,8 +1335,8 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="14" t="s">
         <v>59</v>
       </c>
@@ -1285,7 +1345,7 @@
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>67</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1299,11 +1359,11 @@
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E16" s="12" t="s">
@@ -1311,33 +1371,33 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="12" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="29"/>
       <c r="E18" s="12" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="29"/>
       <c r="E19" s="12" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="29"/>
       <c r="E20" s="12" t="s">
         <v>90</v>
       </c>
@@ -1346,9 +1406,9 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="12" t="s">
         <v>91</v>
       </c>
@@ -1357,115 +1417,115 @@
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="29"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="27" t="s">
         <v>89</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
       <c r="E27" s="12" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
       <c r="E28" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="25" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
@@ -1525,11 +1585,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B31:B38"/>
-    <mergeCell ref="C31:C38"/>
-    <mergeCell ref="C23:C30"/>
-    <mergeCell ref="D23:D30"/>
-    <mergeCell ref="B15:B22"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="D16:D22"/>
@@ -1537,6 +1592,11 @@
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B7:B14"/>
     <mergeCell ref="C11:C14"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="C31:C38"/>
+    <mergeCell ref="C23:C30"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="B15:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD5444D-5353-498B-B134-3C7F6C4BB98B}">
-  <dimension ref="B2:P58"/>
+  <dimension ref="B2:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1559,7 +1619,7 @@
     <col min="4" max="4" width="11.875" style="5" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="39.875" customWidth="1"/>
     <col min="6" max="6" width="21.125" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="27.75" customWidth="1"/>
     <col min="8" max="8" width="38.5" customWidth="1"/>
     <col min="9" max="9" width="70" customWidth="1"/>
   </cols>
@@ -1592,10 +1652,10 @@
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1714,7 @@
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>35</v>
@@ -1682,14 +1742,14 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="28" t="s">
         <v>45</v>
       </c>
       <c r="F10" t="s">
@@ -1703,25 +1763,25 @@
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="24"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="28"/>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="28"/>
       <c r="F12" t="s">
         <v>37</v>
       </c>
@@ -1733,10 +1793,10 @@
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="28"/>
       <c r="F13" t="s">
         <v>38</v>
       </c>
@@ -1751,10 +1811,10 @@
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="28"/>
       <c r="F14" t="s">
         <v>20</v>
       </c>
@@ -1769,10 +1829,10 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="28"/>
       <c r="F15" t="s">
         <v>21</v>
       </c>
@@ -1791,14 +1851,14 @@
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="22" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
@@ -1963,393 +2023,490 @@
       <c r="E29" s="9"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="25"/>
+      <c r="F33" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
+      <c r="F34" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
+      <c r="F35" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="25"/>
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="25"/>
+      <c r="F37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
+      <c r="F38" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" t="s">
+        <v>146</v>
+      </c>
+      <c r="G39" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="25"/>
+      <c r="F40" t="s">
+        <v>150</v>
+      </c>
+      <c r="G40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F42" t="s">
         <v>29</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G42" t="s">
         <v>30</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H42" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" t="s">
-        <v>103</v>
-      </c>
-      <c r="G31" t="s">
-        <v>104</v>
-      </c>
-      <c r="H31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E35" s="9"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="F37" t="s">
-        <v>29</v>
-      </c>
-      <c r="G37" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="30"/>
-      <c r="F38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G38" t="s">
-        <v>104</v>
-      </c>
-      <c r="H38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E39" s="30"/>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E40" s="30"/>
-      <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E41" s="30"/>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
-      </c>
-      <c r="H41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="23"/>
-    </row>
-    <row r="43" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="21"/>
-      <c r="E43" s="28" t="s">
-        <v>133</v>
-      </c>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="25"/>
+      <c r="F44" t="s">
         <v>136</v>
       </c>
-      <c r="H43" t="s">
+      <c r="G44" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="25"/>
+      <c r="F45" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E44" s="28"/>
-      <c r="F44" t="s">
-        <v>37</v>
-      </c>
-      <c r="G44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D45" s="21"/>
-      <c r="E45" s="28"/>
-      <c r="F45" t="s">
-        <v>38</v>
-      </c>
       <c r="G45" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="28"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="G46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="28"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="25"/>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="28"/>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="E48" s="25"/>
       <c r="F48" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="G48" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
+      <c r="E49" s="25"/>
+      <c r="F49" t="s">
+        <v>146</v>
+      </c>
+      <c r="G49" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="28" t="s">
-        <v>133</v>
-      </c>
+      <c r="E50" s="25"/>
       <c r="F50" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G50" t="s">
-        <v>136</v>
-      </c>
-      <c r="H50" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="28"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="25"/>
       <c r="F51" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C52" s="21"/>
       <c r="D52" s="21"/>
-      <c r="E52" s="28"/>
-      <c r="F52" t="s">
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F53" t="s">
+        <v>124</v>
+      </c>
+      <c r="G53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="25"/>
+      <c r="F54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" t="s">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="21"/>
+      <c r="E55" s="25"/>
+      <c r="F55" t="s">
         <v>38</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G55" t="s">
         <v>42</v>
       </c>
-      <c r="H52" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="21"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="28"/>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C54" s="21"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="28"/>
-      <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="28"/>
-      <c r="F55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>131</v>
       </c>
-      <c r="H55" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C56" s="21"/>
       <c r="D56" s="21"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="25"/>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="25"/>
+      <c r="F57" t="s">
+        <v>21</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="25"/>
+      <c r="F58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G58" t="s">
+        <v>127</v>
+      </c>
+      <c r="H58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="23"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F60" t="s">
+        <v>124</v>
+      </c>
+      <c r="G60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="21"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="25"/>
+      <c r="F61" t="s">
+        <v>37</v>
+      </c>
+      <c r="G61" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="25"/>
+      <c r="F62" t="s">
+        <v>38</v>
+      </c>
+      <c r="G62" t="s">
+        <v>42</v>
+      </c>
+      <c r="H62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="25"/>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="25"/>
+      <c r="F64" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="25"/>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="20"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" t="s">
+        <v>104</v>
+      </c>
+      <c r="G67" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="H67" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>105</v>
+      </c>
+      <c r="G68" t="s">
         <v>107</v>
       </c>
-      <c r="F57" t="s">
-        <v>108</v>
-      </c>
-      <c r="G57" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F58" t="s">
+      <c r="H68" t="s">
         <v>109</v>
       </c>
-      <c r="G58" t="s">
-        <v>111</v>
-      </c>
-      <c r="H58" t="s">
-        <v>113</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="E50:E55"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E10:E15"/>
+  <mergeCells count="8">
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="E31:E40"/>
+    <mergeCell ref="E42:E51"/>
+    <mergeCell ref="E53:E58"/>
+    <mergeCell ref="E60:E65"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="E10:E15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 C63:C1048576 C53:C57 C17:C20 C23:C43 C46:C50" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C11 C73:C1048576 C63:C67 C17:C20 C56:C60 C23:C53" xr:uid="{57DF0A07-DFD1-4940-B876-132952E88629}">
       <formula1>$D$4:$D$6</formula1>
     </dataValidation>
   </dataValidations>
